--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 7 (46, 28, 13, 50, 51)/MDD 9 (4, 32, 48, 44, 31)/ANN_128nodes_Uniform0.05Virtual_Control(46, 28, 13, 50, 51)_MDD(4, 32, 48, 44, 31)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 7 (46, 28, 13, 50, 51)/MDD 9 (4, 32, 48, 44, 31)/ANN_128nodes_Uniform0.05Virtual_Control(46, 28, 13, 50, 51)_MDD(4, 32, 48, 44, 31)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.0001206557719430506</v>
+        <v>2.135435661791767E-05</v>
       </c>
       <c r="E2">
-        <v>0.0001206557719430506</v>
+        <v>2.135435661791767E-05</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999999999922984</v>
+        <v>0.9999999903232489</v>
       </c>
       <c r="E3">
-        <v>0.9999999999922984</v>
+        <v>0.9999999903232489</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.006600344545238898</v>
+        <v>0.0319742801520539</v>
       </c>
       <c r="E4">
-        <v>0.006600344545238898</v>
+        <v>0.0319742801520539</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>3.65315063911229E-29</v>
+        <v>5.113401797805511E-45</v>
       </c>
       <c r="E5">
-        <v>3.65315063911229E-29</v>
+        <v>5.113401797805511E-45</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.8202559317475715</v>
+        <v>0.8587544168472843</v>
       </c>
       <c r="E6">
-        <v>0.8202559317475715</v>
+        <v>0.8587544168472843</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00225729882135546</v>
+        <v>0.009001764730336983</v>
       </c>
       <c r="E7">
-        <v>0.9977427011786445</v>
+        <v>0.990998235269663</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9991011093247822</v>
+        <v>0.9397863203476604</v>
       </c>
       <c r="E8">
-        <v>0.0008988906752177561</v>
+        <v>0.06021367965233959</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9490357475920396</v>
+        <v>0.9991223946686987</v>
       </c>
       <c r="E10">
-        <v>0.05096425240796043</v>
+        <v>0.0008776053313013232</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9996910186502553</v>
+        <v>0.9999999483468747</v>
       </c>
       <c r="E11">
-        <v>0.0003089813497446636</v>
+        <v>5.165312533250699E-08</v>
       </c>
       <c r="F11">
-        <v>3.345965623855591</v>
+        <v>2.521662712097168</v>
       </c>
       <c r="G11">
         <v>0.7</v>
